--- a/backend/teste/teste.xlsx
+++ b/backend/teste/teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trabalho_final-master\login-php\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC7D7F1-C285-4ADC-9088-F20C487F6B5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ABB180-84A1-4F70-B526-AC4CE9902FED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{523227A0-AC56-46A1-92B5-C884A258F4AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{523227A0-AC56-46A1-92B5-C884A258F4AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Athos</t>
   </si>
@@ -61,13 +61,28 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Soma Acumulada</t>
+  </si>
+  <si>
+    <t>Contagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +94,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,32 +130,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -151,16 +193,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A11D12DB-E808-45D8-AA00-72FAE0BD7D7D}" name="Tabela1" displayName="Tabela1" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{407E53F9-6186-4F51-A912-5175F4040E3A}"/>
-  <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{4D4B2BBF-1059-4A8A-AFF9-7CFEC5F253FD}" name="ID" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{0C4AE2F6-CE56-436F-9D67-49C447D5A91D}" name="Nome"/>
-    <tableColumn id="2" xr3:uid="{A47F0531-E9CF-4565-AB1A-FCA990D61EB7}" name="Habilidade 1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6A0FCDDE-EA74-459F-8B0E-0B542F3DCA32}" name="Habilidade 2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C4B49BB9-42A8-4988-B113-60EC49BB4CE0}" name="Habilidade 3" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{AF47838B-61E6-4C0A-A4D3-BD1E66F47A06}" name="Habilidade 4" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E0907626-162E-43FC-9EC9-FBA5C44B5C1F}" name="Habilidade 5" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A11D12DB-E808-45D8-AA00-72FAE0BD7D7D}" name="Tabela1" displayName="Tabela1" ref="A1:H4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:H4" xr:uid="{407E53F9-6186-4F51-A912-5175F4040E3A}"/>
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{4D4B2BBF-1059-4A8A-AFF9-7CFEC5F253FD}" name="ID" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{0C4AE2F6-CE56-436F-9D67-49C447D5A91D}" name="RA" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A47F0531-E9CF-4565-AB1A-FCA990D61EB7}" name="Nome" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6A0FCDDE-EA74-459F-8B0E-0B542F3DCA32}" name="Habilidade 1" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C4B49BB9-42A8-4988-B113-60EC49BB4CE0}" name="Habilidade 2" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{AF47838B-61E6-4C0A-A4D3-BD1E66F47A06}" name="Habilidade 3" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E0907626-162E-43FC-9EC9-FBA5C44B5C1F}" name="Habilidade 4" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C0332CB4-2E17-49BA-909E-FD1AC49FEB89}" name="Habilidade 5" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -463,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEADF761-BA93-4148-B4DA-C28ACF7035D5}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,99 +516,112 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>11519973</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="3">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>11519976</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="3">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>11519945</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="3">
         <v>6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="3">
         <v>7</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
